--- a/documents/projet/Tableau de synthéses Marchand Erwan.xlsx
+++ b/documents/projet/Tableau de synthéses Marchand Erwan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fc927a9c44bc8f39/Documents/SLAM/portfollio2/documents/projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEA2D59A-94D9-4CCB-9DF6-F9778E4E3720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{AEA2D59A-94D9-4CCB-9DF6-F9778E4E3720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E50DDBD-A41A-4898-BC3D-D71FAD7B1C06}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -143,58 +143,64 @@
     <t>Bibliotheque en ligne (php, js)</t>
   </si>
   <si>
-    <t>15/03 au 24/03/2023</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>Portfolio (HTML-CSS, JS)</t>
   </si>
   <si>
-    <t>03/01/2023 au 19/12/2023</t>
-  </si>
-  <si>
     <t>AP1 Création entreprise fictive</t>
   </si>
   <si>
-    <t>20/10/2022 au 01/01/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> AP2 Solutions aux Besoins Informatiques de la société M2L</t>
   </si>
   <si>
-    <t>10/01/2023 au 01/04/2023</t>
-  </si>
-  <si>
     <t>AP3 Mise en forme d'une application WEB M2L</t>
   </si>
   <si>
-    <t>18/09/2023 au 20/01/2024</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>GLPI</t>
   </si>
   <si>
-    <t>07/02/2023 au 10/02/2023</t>
-  </si>
-  <si>
-    <t>08/05/2023 au 28/06/2023</t>
-  </si>
-  <si>
     <t>Stage Humen Recrut creation site internent</t>
   </si>
   <si>
     <t xml:space="preserve">Ministère de L'intérieur création d'application </t>
   </si>
   <si>
-    <t>01/09/2023 au 31/05/2023</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :https://erwanipssi.github.io/Marchand-Erwan/index.html</t>
+    <t>Adresse URL du portfolio :https://erwanipssi.github.io/Marchand-Erwan-Portfolio/</t>
+  </si>
+  <si>
+    <t>du 15/03 au 24/03/2023</t>
+  </si>
+  <si>
+    <t>du 03/01/2023 au 19/12/2023</t>
+  </si>
+  <si>
+    <t>du 20/10/2022 au 01/01/2023</t>
+  </si>
+  <si>
+    <t>du 10/01/2023 au 01/04/2023</t>
+  </si>
+  <si>
+    <t>du 18/09/2023 au 20/01/2024</t>
+  </si>
+  <si>
+    <t>du 07/02/2023 au 10/02/2023</t>
+  </si>
+  <si>
+    <t>du 08/05/2023 au 28/06/2023</t>
+  </si>
+  <si>
+    <t>du 01/09/2023 au 31/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion d'un inventaire </t>
+  </si>
+  <si>
+    <t>du 03/03/2023 au 04/03/2023</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -283,6 +289,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -683,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -757,12 +769,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -831,6 +837,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -848,6 +869,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1142,8 +1167,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1156,56 +1181,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1217,22 +1242,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1255,8 +1280,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1312,16 +1337,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1363,16 +1388,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>28</v>
+      <c r="F9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9"/>
@@ -1413,19 +1438,19 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>28</v>
+      <c r="F10" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10"/>
@@ -1466,26 +1491,26 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>28</v>
+      <c r="E11" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1525,22 +1550,22 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="22" t="s">
-        <v>28</v>
+      <c r="F12" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="26" t="s">
-        <v>28</v>
+      <c r="H12" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1580,26 +1605,26 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>28</v>
+      <c r="E13" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1639,14 +1664,14 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="23" t="s">
-        <v>28</v>
+      <c r="D14" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1689,9 +1714,15 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -1869,16 +1900,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1917,24 +1948,24 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="23" t="s">
-        <v>28</v>
+      <c r="F20" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="26" t="s">
-        <v>28</v>
+      <c r="H20" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2243,16 +2274,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2291,28 +2322,28 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
